--- a/inputs/Planilla general de notas 1° 1 2024.xlsx
+++ b/inputs/Planilla general de notas 1° 1 2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4b15f908ef24bc4/Escritorio/automatizacionNotas/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4b15f908ef24bc4/Escritorio/Workspace/automatizacionNotas/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFBBCE15-A3B3-4064-B26A-5945993BBADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B547A421-3542-4BAD-B733-EFF612E43968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{12213F3D-57CD-4728-9F40-F5A803A91E32}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3388F700-339C-4424-80C0-144BA72920A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen general de evaluacione" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="67">
   <si>
     <t>Escuela N° 9003 MERCEDES T.S.M. DE BALCARCE</t>
   </si>
@@ -96,7 +96,8 @@
     <t>ARENAS, KIARA GUADALUPE</t>
   </si>
   <si>
-    <t>D=</t>
+    <t>D=Aus
+F/M=1.00</t>
   </si>
   <si>
     <t>D=1.00</t>
@@ -123,16 +124,28 @@
     <t>D=8.00</t>
   </si>
   <si>
-    <t>D=5.00</t>
+    <t>D=5.00
+F/M=8.00</t>
   </si>
   <si>
     <t>BARROS SOLORSA, RENZO GENARO (Condicional)</t>
+  </si>
+  <si>
+    <t>D=1.00
+F/M=1.00</t>
   </si>
   <si>
     <t>D=Aus
 F/M=Aus</t>
   </si>
   <si>
+    <t>D=1.00
+F/M=Aus</t>
+  </si>
+  <si>
+    <t>D=</t>
+  </si>
+  <si>
     <t>BASTIAS, DYLAN NICOLÁS</t>
   </si>
   <si>
@@ -172,7 +185,8 @@
     <t>JURI GAUNA , THIAGO ALEXAND (Condicional)</t>
   </si>
   <si>
-    <t>D=3.00</t>
+    <t>D=3.00
+F/M=7.00</t>
   </si>
   <si>
     <t>LOPEZ, YULIAN LEONEL</t>
@@ -771,7 +785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD871E5D-F5CC-4592-BCF6-DBCBD08D959F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1711F8A4-E7C3-4EEB-94A7-34A8104509B7}">
   <dimension ref="A1:AT41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
@@ -1853,8 +1867,8 @@
       <c r="AQ10" s="3">
         <v>8</v>
       </c>
-      <c r="AR10" s="3" t="s">
-        <v>23</v>
+      <c r="AR10" s="3">
+        <v>8</v>
       </c>
       <c r="AS10" s="3">
         <v>10</v>
@@ -1949,25 +1963,25 @@
         <v>21</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AF11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AH11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AI11" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AJ11" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="AL11" s="5" t="s">
         <v>23</v>
@@ -1999,7 +2013,7 @@
     </row>
     <row r="12" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5">
         <v>9</v>
@@ -2121,7 +2135,7 @@
     </row>
     <row r="13" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5">
         <v>8</v>
@@ -2245,7 +2259,7 @@
     </row>
     <row r="14" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5">
         <v>7</v>
@@ -2369,7 +2383,7 @@
     </row>
     <row r="15" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B15" s="5">
         <v>10</v>
@@ -2491,7 +2505,7 @@
     </row>
     <row r="16" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -2613,7 +2627,7 @@
     </row>
     <row r="17" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B17" s="5">
         <v>9</v>
@@ -2705,7 +2719,7 @@
       </c>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
@@ -2739,7 +2753,7 @@
     </row>
     <row r="18" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" s="5">
         <v>7</v>
@@ -2865,7 +2879,7 @@
     </row>
     <row r="19" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5">
         <v>10</v>
@@ -2987,7 +3001,7 @@
     </row>
     <row r="20" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="3"/>
@@ -3037,7 +3051,7 @@
     </row>
     <row r="21" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B21" s="5">
         <v>9</v>
@@ -3159,7 +3173,7 @@
     </row>
     <row r="22" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B22" s="5">
         <v>9</v>
@@ -3281,7 +3295,7 @@
     </row>
     <row r="23" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B23" s="5">
         <v>7</v>
@@ -3362,7 +3376,7 @@
         <v>27</v>
       </c>
       <c r="AD23" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AE23" s="3" t="s">
         <v>26</v>
@@ -3386,8 +3400,8 @@
       <c r="AL23" s="5">
         <v>9</v>
       </c>
-      <c r="AM23" s="3" t="s">
-        <v>23</v>
+      <c r="AM23" s="3">
+        <v>7</v>
       </c>
       <c r="AN23" s="3">
         <v>7</v>
@@ -3413,7 +3427,7 @@
     </row>
     <row r="24" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B24" s="5">
         <v>8</v>
@@ -3535,7 +3549,7 @@
     </row>
     <row r="25" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>
@@ -3585,7 +3599,7 @@
     </row>
     <row r="26" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B26" s="5">
         <v>9</v>
@@ -3707,7 +3721,7 @@
     </row>
     <row r="27" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B27" s="5">
         <v>9</v>
@@ -3833,7 +3847,7 @@
     </row>
     <row r="28" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B28" s="5">
         <v>9</v>
@@ -3955,7 +3969,7 @@
     </row>
     <row r="29" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B29" s="5">
         <v>9</v>
@@ -4077,7 +4091,7 @@
     </row>
     <row r="30" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B30" s="5">
         <v>9</v>
@@ -4199,7 +4213,7 @@
     </row>
     <row r="31" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B31" s="5">
         <v>9</v>
@@ -4321,7 +4335,7 @@
     </row>
     <row r="32" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B32" s="5">
         <v>10</v>
@@ -4443,7 +4457,7 @@
     </row>
     <row r="33" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B33" s="5">
         <v>9</v>
@@ -4565,7 +4579,7 @@
     </row>
     <row r="34" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B34" s="5">
         <v>10</v>
@@ -4687,7 +4701,7 @@
     </row>
     <row r="35" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B35" s="5">
         <v>10</v>
@@ -4809,7 +4823,7 @@
     </row>
     <row r="36" spans="1:46" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B36" s="5">
         <v>10</v>
@@ -4931,7 +4945,7 @@
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B38" s="12">
         <v>30</v>
@@ -5018,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="AD38" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE38" s="10">
         <v>1</v>
@@ -5033,7 +5047,7 @@
         <v>2</v>
       </c>
       <c r="AI38" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ38" s="10">
         <v>1</v>
@@ -5045,7 +5059,7 @@
         <v>30</v>
       </c>
       <c r="AM38" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN38" s="10">
         <v>30</v>
@@ -5060,7 +5074,7 @@
         <v>29</v>
       </c>
       <c r="AR38" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS38" s="10">
         <v>30</v>
@@ -5071,7 +5085,7 @@
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B39" s="12">
         <v>1</v>
@@ -5150,10 +5164,10 @@
         <v>1</v>
       </c>
       <c r="AD39" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE39" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF39" s="10">
         <v>2</v>
@@ -5179,7 +5193,7 @@
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B40" s="13">
         <v>0.967741935483871</v>
@@ -5266,10 +5280,10 @@
         <v>0.5</v>
       </c>
       <c r="AD40" s="11">
-        <v>0.75</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AE40" s="11">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF40" s="11">
         <v>0.5</v>
@@ -5281,7 +5295,7 @@
         <v>0.5</v>
       </c>
       <c r="AI40" s="11">
-        <v>0.33333333333333331</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AJ40" s="11">
         <v>1</v>
@@ -5319,7 +5333,7 @@
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B41" s="13">
         <v>3.2258064516129031E-2</v>
@@ -5398,10 +5412,10 @@
         <v>0.5</v>
       </c>
       <c r="AD41" s="11">
-        <v>0.25</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AE41" s="11">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AF41" s="11">
         <v>0.5</v>
@@ -5411,7 +5425,7 @@
         <v>0.5</v>
       </c>
       <c r="AI41" s="11">
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AJ41" s="11"/>
       <c r="AK41" s="11"/>
